--- a/biology/Médecine/Claude_Jeangirard/Claude_Jeangirard.xlsx
+++ b/biology/Médecine/Claude_Jeangirard/Claude_Jeangirard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Jeangirard, né le 14 mars 1925 à Clichy et mort le 25 juin 2018 à Blois[1], est un psychiatre français appartenant au mouvement de la psychothérapie institutionnelle. Il fonde, en 1956, la clinique de La Chesnaie, à Chailles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Jeangirard, né le 14 mars 1925 à Clichy et mort le 25 juin 2018 à Blois, est un psychiatre français appartenant au mouvement de la psychothérapie institutionnelle. Il fonde, en 1956, la clinique de La Chesnaie, à Chailles.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Jeangirard est né à Clichy en 1925. Il commence par des études en « math-élem » suivies par des études de médecine[2]. qui le mèneront en tant qu'interne et externe à travailler à l'hôpital Saint-Anne[2]. Il s’intéresse également au théâtre[2]. Élève d'Henri Ey[2] et de Georges Daumezon, il rencontre Jean Oury à la clinique de La Borde, puis ouvre en 1956 sa propre clinique à La Chesnaie, en prenant des patients venus de La Borde et de Sainte-Anne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Jeangirard est né à Clichy en 1925. Il commence par des études en « math-élem » suivies par des études de médecine. qui le mèneront en tant qu'interne et externe à travailler à l'hôpital Saint-Anne. Il s’intéresse également au théâtre. Élève d'Henri Ey et de Georges Daumezon, il rencontre Jean Oury à la clinique de La Borde, puis ouvre en 1956 sa propre clinique à La Chesnaie, en prenant des patients venus de La Borde et de Sainte-Anne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Psychothérapie institutionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La psychothérapie institutionnelle est un courant d'après-guerre influencé par la psychanalyse, qui entend humaniser les hôpitaux psychiatriques, notamment en questionnant le rapport entre soignants et soignés ; le patient y est invité à prendre part à la vie de l’institution[3]. Claude Jeangirard participe à remettre en cause le fonctionnement des hôpitaux psychiatriques de l'époque et préconise la mise en place de plus petites unités, plus humaines et plus propices à soigner[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La psychothérapie institutionnelle est un courant d'après-guerre influencé par la psychanalyse, qui entend humaniser les hôpitaux psychiatriques, notamment en questionnant le rapport entre soignants et soignés ; le patient y est invité à prendre part à la vie de l’institution. Claude Jeangirard participe à remettre en cause le fonctionnement des hôpitaux psychiatriques de l'époque et préconise la mise en place de plus petites unités, plus humaines et plus propices à soigner.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Soigner les schizophrènes : Un devoir d'hospitalité, 2006, Érès  (ISBN 9782749206653)
 « L'Acte psychanalytique et l'Institution psychiatrique », Che Vuoi?, 2007/1, no 27, p. 119-130, [lire en ligne]
@@ -606,9 +624,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2017 : chevalier de l'ordre national du Mérite[4].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2017 : chevalier de l'ordre national du Mérite.</t>
         </is>
       </c>
     </row>
